--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,10 @@
     <sheet name="missed" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="filming" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="mice" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="ear-phones" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="headsets" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="chargers" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="cameras" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="watches" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="195">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -248,6 +251,22 @@
     <t xml:space="preserve">https://www.amazon.eg/-/en/Anker-PowerCore-High-Speed-Technology-Recharging/dp/B08WJL6X8L</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Apple MagSafe Battery Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attaching the MagSafe Battery Pack is a snap. Its compact, intuitive design makes on-the-go charging easy. The perfectly aligned magnets keep it attached to your iPhone 12 and iPhone 12 Pro or iPhone 13 and iPhone 13 Pro — providing safe and reliable wireless charging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/418SjFMB1wL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/7197FBp8deL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-MJWY3AM-A-MagSafe-Battery/dp/B099BWY7WT</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/41m4bG0z5iS._AC_SL1144_.jpg</t>
   </si>
   <si>
@@ -303,8 +322,430 @@
     <t xml:space="preserve">https://www.amazon.ae/Xcell-Bluetooth-Earbuds-Compact-Compatible/dp/B08VS8F441</t>
   </si>
   <si>
-    <t xml:space="preserve">ITL Bluetooth In-Ear Earphones YZ-683EP Black
+    <t xml:space="preserve">Mi True Wireless Earphone 2 Basic Original Xiaomi Air2 SE
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual microphone for noise reduction without fear of interference
+Open box and popup window, you can see it with smart connection
+Smart and true wireless, free and free
+Large-size moving coil unit, rich and natural hearing
+Simultaneous binaural transmission, game audio and video is more enjoyable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71UEFz41cDL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71uDUlX-E+L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Wireless-Basic-Xiaomi-bluetooth-Headphone/dp/B08BRGH7S3?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Logitech H650e Wired Headset, Stereo Headphones with Noise-Cancelling Microphone, USB, In-Line Controls, Indicator LED, PC/Mac/Laptop – Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Logitech
+Series: 	H650E
+Colour:	Black, Silver
+Form factor:	On Ear
+Connectivity technology:	Wired
+Connectivity Type:	Wireless
+Included components:	Carrying case
+In-Call LED Red-Light Indicator : Located on the backside of the boom mic, this red light provides a visual alert to those behind you that you are on a call, preventing accidental disturbances during calls. With Microsoft Lync deployments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81Qjh-JMP2L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/7161utIZ6GL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.co.uk/Logitech-H650e-Stereo-USB-Headset/dp/B00C3VSZEW?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEREO T10 Stereo Wireless Headphones
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version: Buildwin 5.0 +EDR
+Transmission distance: 10 meters
+Use time: 20-24 hours
+Standby time: 400 hours
+Battery capacity: 200mAh Charging
+time: 4 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eg.jumia.is/unsafe/fit-in/680x680/filters:fill(white)/product/47/368603/1.jpg?0213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jumia.com.eg/stereo-t10-stereo-wireless-headphones-30686374.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Level U Pro Headset, Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand:	SAMSUNG
+Colour:	Gold
+Form factor:	In Ear
+Connectivity technology:	Wireless
+Age range (description): Adult
+Compatible Devices:	Cellphones
+Item weight:	0.26 Kilograms
+Samsung level U wireless headphones are perfect for listening to music on the go. Samsung level U PRO Bluetooth features smart magnet in the ear buds.Experience the real essence of music with the Samsung EO BN920CFEG Level U PRO Bluetooth Wireless Headphones UHQ Audio. It is here to provide you with the best audio experience and be your music companion when you are out for a holiday or work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/6116E4lfTiL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61PhLAwyWbL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Samsung-Level-Headset-Gold-EO-BN920CFEGWW/dp/B076JHFBMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBL JR310BT Ultra Portable Kids Wireless On-Ear Headphones with Safe Sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/619jjtz53JL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61yYuO6v-nL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/JBL-Portable-Wireless-Headphones-Headband/dp/B08FB2LLSV?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+JBL T450BT On Ear Bluetooth Wireless Headphones, Compact with Pure Bass Sound with Built-in Microphone, White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	JBL
+Model Name:	T450BT
+Colour:	White
+Form factor:	On Ear
+Connector Type:	Wireless
+The new era of listening - deep, powerful JBL Pure Bass brings you the highest quality, and most precise sound/for a crystal clear level of audio meant to be felt, not just heard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61hCc52hrbL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81PCL6rYD+L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com.au/JBL-T450BT-Wireless-on-Ear-Headphones/dp/B01M6XC08M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBL E55BT Over-Ear Surround Bluetooth Headphones, Foldable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	JBL
+Model Name:	E55BT
+Color:	Blue
+Form Factor:	Over Ear
+Connectivity Technology:	Bluetooth 4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71dojjDFxWL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71gyYJA049L._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/JBL-Bluetooth-Headphone-Blue-E55BT/dp/B01MXV1WE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SAMSUNG Galaxy Buds Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	SAMSUNG
+Model Name:	Galaxy Buds Pro
+Color:	Phantom Black
+Form Factor:	In Ear
+Connectivity Technology:	Bluetooth 5.0
+Intelligent Active Noise Cancellation: Escape and tune in to your own moment of Zen — all with a single tap; Answer calls and instantly switch to talking with voice detection and let in the sounds that matter most with 4 ambient levels.Note : If the size of the earbud tips does not match the size of your ear canals or the headset is not worn properly in your ears, you may not obtain the correct sound qualities or call performance. Change the earbud tips to ones that fit more snugly in your ear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61f0CqPxB9L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51KmgGbu8eL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Bluetooth-Wireless-Cancelling-Charging-Resistant/dp/B08MWZHHKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Apple MagSafe Charger - Wireless Charger with Fast Charging Capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The MagSafe Charger makes wireless charging a snap. The perfectly aligned magnets attach to your iPhone 13, iPhone 13 Pro, iPhone 12, and iPhone 12 Pro and provide faster wireless charging up to 15W.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71f792LZY2L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-MHXH3AM-A-MagSafe-Charger/dp/B08L5NP6NG/ref=sr_1_3?keywords=magsafe+charger&amp;qid=1673165109&amp;sprefix=magsa%2Caps%2C530&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple USB-C to Lightning Cable (2 m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect your iPhone, iPad, or iPod with Lightning connector to your USB-C or Thunderbolt 3 (USB-C) enabled Mac for syncing and charging, or to your USB-C enabled iPad for charging.
+You can also use this cable with your Apple 18W, 20W, 29W, 30W, 61W, 87W or 96W USB‑C Power Adapter to charge your iOS device and even take advantage of the fast-charging feature on select iPhone and iPad models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61QvSXD+InL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61o0it4fs4L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-USB-C-Lightning-Cable-2-m/dp/B09BRGK8HX/ref=sr_1_1?crid=33ND4Z3TSNIHT&amp;keywords=usb+c+to+lightning+cable+2m&amp;qid=1673165214&amp;sprefix=usb+c+to+lignting+cable+%2Caps%2C633&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-port USB charger, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge up to 3 devices at the same time with this USB charger and spend less time looking for available chargers. The KOPPLA series supports your electrical needs and gives you power where you need it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/koppla-3-port-usb-charger-white__0646399_pe704177_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/koppla-3-port-usb-charger-white__0881769_pe620478_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/gb/en/p/koppla-3-port-usb-charger-white-40415031/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxy Watch Gear S2/S3/S4 Stand Wireless Charging Dock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red light on charging, green light on full charge.
+Built-in magnet, easy and secure placement in the charger. Short circuit protection, Built-in IC chip prevents overcharging.
+Charging method : sensing mode with magnets.
+Power Protection Inside keep your Watch safe from over-current or over-charging when connected it power source.
+Package include USB cable and Charging Dock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brotherselectronicsbd.com/image/cache/catalog/demo/Accessories/Samsung/S4%20Charging%20Dock/Dock%20(1)-800x800.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brotherselectronicsbd.com/image/cache/catalog/demo/Accessories/Samsung/S4%20Charging%20Dock/Dock%20(4)-800x800.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brotherselectronicsbd.com/index.php?route=product/product&amp;product_id=1105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujifilm Instax Mini 11 Instant Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slim body size with transparent ring lens
+Automatic exposure - The Mini 11 automatically selects the optimal shutter speed in any environment. Mini 11 captures bright backgrounds and bright subjects, even in dark scenes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71j8R1uN1UL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Fujifilm-Instax-Mini-Instant-Camera/dp/B085282C1R?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech C920 Hd Pro Webcam (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full HD 1080p video that's faster, smoother and works on more computers.   Skype in Full HD 1080p Get breathtaking Full HD 1080p video calls on Skype for the sharpest video-calling experience.   Smoother. Sharper. Richer. Clearer. Logitech Fluid Crystal Technology. It's what makes a Logitech webcam better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71iNwni9TsL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61eHA-SIfyL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Logitech-C920-Pro-Webcam-Black/dp/B00829D0GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Watch Series 3 [GPS 42mm] Smart Watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand:	Apple
+Model Name:	Apple Watch Series 3
+Style:	Watch
+Color:	Space Gray Aluminum with Black Sport Band
+Screen Size:	42 Millimeters
+Special Features:	Time Display, GPS, Phone Call, Notifications, Heart Rate Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71yrt3+nfkL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71E-ycMHWpL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-Aluminum-Fitness-Activity-Resistant/dp/B07K387Y7K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Watch Series 3 [GPS 38mm] Smart Watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Apple
+Model Name:	Apple Watch Series 3
+Style:	Watch
+Color:	Space Gray Aluminum with Black Sport Band
+Screen Size:	38 Millimeters
+Special Feature:	Fitness Tracker, GPS, Barometric Altimeter, Accelerometer, Heart Rate Monitoring, Activity Tracker, Water ResistantFitness Tracker, GPS, Barometric Altimeter, Accelerometer, Heart Rate Monitoring, Activity Tracker, Water Resistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71fwbMm1NBL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71EqEnW8CdL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-Aluminum-Fitness-Activity-Resistant/dp/B07K39FRSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Apple Watch SE (GPS, 40mm) - Space Grey Aluminium Case with Midnight Sport Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Apple
+Special features:	GPS
+Compatible devices:	Smartphone
+Connectivity technologies:	GPS
+Weight:	0.36 Kilograms
+Item dimensions LxWxH:	26.6 x 7.6 x 3.4 centimeters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71Pln-8awPL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71IyEVUvivL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.eg/-/en/Apple-Watch-GPS-40mm-Aluminium/dp/B09G98Q94N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Watch SE (GPS, 44mm) - Space Grey Aluminium Case with Midnight Sport Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Watch SE GPS Model lets you call, text, and get directions from your wrist, while leaving your phone in your pocket. It offers multiple connectivity options, including: Bluetooth, Wi-Fi, and NFC to suit your needs, whatever they might be.
+Brand:	Apple
+Model Name:	Apple Watch SE
+Style:	Sport
+Color:	Space grey,Alumunium case
+Screen Size:	44 Millimeters
+Special Feature:	Sleep Monitor, Activity Tracker, Voice Control, GPS, Heart Rate Monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61kEyZitqLL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61zCA4V3hRL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-Watch-GPS-44mm-Aluminium/dp/B09JCM3RHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Watch Series 6 (GPS, 40mm) - Space Gray Aluminum Case with Black Sport Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Apple
+Model Name:	Series 6
+Color:	Space Gray Aluminum Case
+Screen Size:	40 Millimeters
+Capacity: 32GB
+Special Feature: ECG, Oxymeter (SpO2), Always On Display, Time Display, GPS, Sleep Monitor, Text Messaging, Voice Call, Phone Call, SOS Button, Wireless Charging, Notifications, Music Player, Multisport Tracker, Heart Rate Monitor, Fall Detection, Contactless Payments, Calendaring, Breath Monitor, Audio Recording, Alarm Clock, Activity Tracker, Accelerometer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71uN94CB+jL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81F-Y7oexBL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/New-Apple-Watch-GPS-40mm/dp/B08KHR6B3W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Watch Series 7 [GPS 41mm] Smart Watch with Blue Aluminum Case with Abyss Blue Sport Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	Apple
+Model Name:	Apple Watch Series 7
+Style:	GPS
+Color:	Blue Aluminum Case with Abyss Blue Sport Band
+Screen Size:	41 Millimeters
+Special Feature: Activity Tracker, Heart Rate Monitor, Sleep Monitor, Blood Oxygen, Fall detector, Always-On Retina Display, Always-On Altimeter
+ The most advanced Apple Watch features powerful health innovations like sensors and apps to measure your blood oxygen and take an ECG. The larger, Always-On Retina display makes it easier to use and read. The most durable Apple Watch. Charges faster so you can get going quicker.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71GIYSZpW+L._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81HwlsE0-mL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Apple-Watch-Aluminum-Abyss-Sport/dp/B09HDXS1DM?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI Watch FIT Bluetooth SmartWatch, 1.64" Vivid AMOLED Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	HUAWEI
+Style:	Modern
+Screen Size:	42 Millimeters
+Special Feature:	Time Display, Sleep Monitor, Accelerometer, GPS, Pedometer, Heart Rate Monitor
+HUAWEI WATCH FIT has a wonderful 1.64-inch rectangular AMOLED screen and 280 x 456 HD resolution, HUAWEI WATCH FIT offers an ultra-clear and wide viewing experience. Automatic brightness adjustment offers better viewing in sunlight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51MaVuez0AS._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41TTUT2LeJS._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/HUAWEI-SmartWatch-Quick-Workout-Animations-Waterproof/dp/B08G58CGT9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI WATCH GT 2 (46 mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI WATCH GT series is always exploring the limits of smart watch battery life. With HUAWEI's self-developed wearable chip Kirin A1, the dual-chip design and intelligent power saving technology, it serves you day and night for up to 2 weeks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://consumer-img.huawei.com/content/dam/huawei-cbg-site/common/mkt/list-image/wearables/watch-gt2/watch-gt2-listimage-Matte-Black.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://consumer.huawei.com/en/wearables/watch-gt2/specs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAWEI Watch GT 2 Pro Smart Watch 1.39 inch AMOLED Touchscreen SmartWatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	HUAWEI
+Model Name:	Watch GT 2 Pro
+Style:	Modern
+Color:	Gray
+Screen Size:	1.39 Inches
+Special Feature:	Time Display, Sleep Monitor, Email, Accelerometer, Text Messaging, GPS, Heart Rate Monitor
+LONG BATTERY LIFE: Up to 2 weeks of battery provides continuous power for your smart life. With 5 minutes of wireless quick charge, you can use this sports watch for 10 hours. It also supports reverse charging from your phone when there is lack of chargers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/713K6OiIMyL._AC_SL1367_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61civaV-b9L._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/HUAWEI-Touchscreen-SmartWatch-Waterproof-Bluetooth/dp/B08JTDQTYT</t>
   </si>
 </sst>
 </file>
@@ -425,7 +866,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -690,13 +1131,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -750,6 +1191,26 @@
       </c>
       <c r="G3" s="0" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +1235,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -810,11 +1271,11 @@
         <v>150000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +1300,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -866,25 +1327,25 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +1370,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -936,19 +1397,19 @@
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -967,10 +1428,255 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3466</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3486</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3468</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>3471</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>3474</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>3477</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>3480</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>3483</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,26 +1704,393 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>143</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>400000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>800000</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,8 @@
     <sheet name="chargers" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="cameras" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="watches" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="phone-holders" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="speaker-bags" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -291,6 +293,40 @@
     <t xml:space="preserve">https://www.apple.com/uk/shop/product/HQ692ZM/A/joby-gorillapod-magsafe-vlogging-kit?fnode=c70f0a0db48f5d2fbd38b6e6598f86dfd25a4f576ee37f0b3511c54b0ef3611a18f1e0674d9a51c16d2fc7d727878f61cb3aaa28e930206f23d4a590b083ee6c7aac2c67b6fec6433e13c2179582f47d348ae848ee3e6b0489dc84fedc35cb4e203dba5698af4b39a5e729cf6798e993</t>
   </si>
   <si>
+    <t xml:space="preserve">FujiFilm Instax Mini Instant Film Pack (20 SH)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed for use with Instax Mini line of cameras; Works well in low light.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://electronyat.qa/images/thumbs/0005949_fujifilm-instax-mini-instant-film-pack-20-sh.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://electronyat.qa/en/fujifilm-instax-mini-instant-film-pack-20-sheet-in-qatar-doha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKALASK - IKEA Battery Alkaline AAA, AA 10pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKALASK - IKEA Battery Alkaline
+You can use the battery for all kind of products, such as MP3 player , cameras, toys , clocks and remote control.
+Package Quantity  : 10 pieces 
+LR03 AAA 1.5V
+LR6 AA 1.5 V
+Not Chargerable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cf.shopee.com.my/file/46d06847a6be87f06d863de1cc71c32f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cf.shopee.com.my/file/d6b6996cac3eed0460baec2c026d7169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.com.my/ALKALASK-IKEA-Battery-Alkaline-AAA-AA-10pcs-i.29353393.3353921289</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOGITECH M171 WIRELESS MOUSE
 </t>
   </si>
@@ -346,13 +382,13 @@
 Logitech H650e Wired Headset, Stereo Headphones with Noise-Cancelling Microphone, USB, In-Line Controls, Indicator LED, PC/Mac/Laptop – Black</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand: 	Logitech
-Series: 	H650E
-Colour:	Black, Silver
-Form factor:	On Ear
-Connectivity technology:	Wired
-Connectivity Type:	Wireless
-Included components:	Carrying case
+    <t xml:space="preserve">Brand: Logitech
+Series: H650E
+Colour:Black, Silver
+Form factor:On Ear
+Connectivity technology:Wired
+Connectivity Type:Wireless
+Included components:Carrying case
 In-Call LED Red-Light Indicator : Located on the backside of the boom mic, this red light provides a visual alert to those behind you that you are on a call, preventing accidental disturbances during calls. With Microsoft Lync deployments </t>
   </si>
   <si>
@@ -387,13 +423,13 @@
   </si>
   <si>
     <t xml:space="preserve">
-Brand:	SAMSUNG
-Colour:	Gold
-Form factor:	In Ear
-Connectivity technology:	Wireless
+Brand:SAMSUNG
+Colour:Gold
+Form factor:In Ear
+Connectivity technology:Wireless
 Age range (description): Adult
-Compatible Devices:	Cellphones
-Item weight:	0.26 Kilograms
+Compatible Devices:Cellphones
+Item weight:0.26 Kilograms
 Samsung level U wireless headphones are perfect for listening to music on the go. Samsung level U PRO Bluetooth features smart magnet in the ear buds.Experience the real essence of music with the Samsung EO BN920CFEG Level U PRO Bluetooth Wireless Headphones UHQ Audio. It is here to provide you with the best audio experience and be your music companion when you are out for a holiday or work</t>
   </si>
   <si>
@@ -422,11 +458,11 @@
 JBL T450BT On Ear Bluetooth Wireless Headphones, Compact with Pure Bass Sound with Built-in Microphone, White</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	JBL
-Model Name:	T450BT
-Colour:	White
-Form factor:	On Ear
-Connector Type:	Wireless
+    <t xml:space="preserve">Brand:JBL
+Model Name:T450BT
+Colour:White
+Form factor:On Ear
+Connector Type:Wireless
 The new era of listening - deep, powerful JBL Pure Bass brings you the highest quality, and most precise sound/for a crystal clear level of audio meant to be felt, not just heard</t>
   </si>
   <si>
@@ -442,11 +478,11 @@
     <t xml:space="preserve">JBL E55BT Over-Ear Surround Bluetooth Headphones, Foldable</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	JBL
-Model Name:	E55BT
-Color:	Blue
-Form Factor:	Over Ear
-Connectivity Technology:	Bluetooth 4.0</t>
+    <t xml:space="preserve">Brand:JBL
+Model Name:E55BT
+Color:Blue
+Form Factor:Over Ear
+Connectivity Technology:Bluetooth 4.0</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/71dojjDFxWL._AC_SL1200_.jpg</t>
@@ -462,11 +498,11 @@
 SAMSUNG Galaxy Buds Pro</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	SAMSUNG
-Model Name:	Galaxy Buds Pro
-Color:	Phantom Black
-Form Factor:	In Ear
-Connectivity Technology:	Bluetooth 5.0
+    <t xml:space="preserve">Brand:SAMSUNG
+Model Name:Galaxy Buds Pro
+Color:Phantom Black
+Form Factor:In Ear
+Connectivity Technology:Bluetooth 5.0
 Intelligent Active Noise Cancellation: Escape and tune in to your own moment of Zen — all with a single tap; Answer calls and instantly switch to talking with voice detection and let in the sounds that matter most with 4 ambient levels.Note : If the size of the earbud tips does not match the size of your ear canals or the headset is not worn properly in your ears, you may not obtain the correct sound qualities or call performance. Change the earbud tips to ones that fit more snugly in your ear</t>
   </si>
   <si>
@@ -574,12 +610,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-Brand:	Apple
-Model Name:	Apple Watch Series 3
-Style:	Watch
-Color:	Space Gray Aluminum with Black Sport Band
-Screen Size:	42 Millimeters
-Special Features:	Time Display, GPS, Phone Call, Notifications, Heart Rate Monitor</t>
+Brand:Apple
+Model Name:Apple Watch Series 3
+Style:Watch
+Color:Space Gray Aluminum with Black Sport Band
+Screen Size:42 Millimeters
+Special Features:Time Display, GPS, Phone Call, Notifications, Heart Rate Monitor</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/71yrt3+nfkL._AC_SL1500_.jpg</t>
@@ -594,12 +630,12 @@
     <t xml:space="preserve">Apple Watch Series 3 [GPS 38mm] Smart Watch</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	Apple
-Model Name:	Apple Watch Series 3
-Style:	Watch
-Color:	Space Gray Aluminum with Black Sport Band
-Screen Size:	38 Millimeters
-Special Feature:	Fitness Tracker, GPS, Barometric Altimeter, Accelerometer, Heart Rate Monitoring, Activity Tracker, Water ResistantFitness Tracker, GPS, Barometric Altimeter, Accelerometer, Heart Rate Monitoring, Activity Tracker, Water Resistant</t>
+    <t xml:space="preserve">Brand:Apple
+Model Name:Apple Watch Series 3
+Style:Watch
+Color:Space Gray Aluminum with Black Sport Band
+Screen Size:38 Millimeters
+Special Feature:Fitness Tracker, GPS, Barometric Altimeter, Accelerometer, Heart Rate Monitoring, Activity Tracker, Water ResistantFitness Tracker, GPS, Barometric Altimeter, Accelerometer, Heart Rate Monitoring, Activity Tracker, Water Resistant</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/71fwbMm1NBL._AC_SL1500_.jpg</t>
@@ -615,12 +651,12 @@
 Apple Watch SE (GPS, 40mm) - Space Grey Aluminium Case with Midnight Sport Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	Apple
-Special features:	GPS
-Compatible devices:	Smartphone
-Connectivity technologies:	GPS
-Weight:	0.36 Kilograms
-Item dimensions LxWxH:	26.6 x 7.6 x 3.4 centimeters</t>
+    <t xml:space="preserve">Brand:Apple
+Special features:GPS
+Compatible devices:Smartphone
+Connectivity technologies:GPS
+Weight:0.36 Kilograms
+Item dimensions LxWxH:26.6 x 7.6 x 3.4 centimeters</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/71Pln-8awPL._AC_SL1500_.jpg</t>
@@ -636,12 +672,12 @@
   </si>
   <si>
     <t xml:space="preserve">Apple Watch SE GPS Model lets you call, text, and get directions from your wrist, while leaving your phone in your pocket. It offers multiple connectivity options, including: Bluetooth, Wi-Fi, and NFC to suit your needs, whatever they might be.
-Brand:	Apple
-Model Name:	Apple Watch SE
-Style:	Sport
-Color:	Space grey,Alumunium case
-Screen Size:	44 Millimeters
-Special Feature:	Sleep Monitor, Activity Tracker, Voice Control, GPS, Heart Rate Monitor</t>
+Brand:Apple
+Model Name:Apple Watch SE
+Style:Sport
+Color:Space grey,Alumunium case
+Screen Size:44 Millimeters
+Special Feature:Sleep Monitor, Activity Tracker, Voice Control, GPS, Heart Rate Monitor</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/61kEyZitqLL._AC_SL1500_.jpg</t>
@@ -656,10 +692,10 @@
     <t xml:space="preserve">Apple Watch Series 6 (GPS, 40mm) - Space Gray Aluminum Case with Black Sport Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	Apple
-Model Name:	Series 6
-Color:	Space Gray Aluminum Case
-Screen Size:	40 Millimeters
+    <t xml:space="preserve">Brand:Apple
+Model Name:Series 6
+Color:Space Gray Aluminum Case
+Screen Size:40 Millimeters
 Capacity: 32GB
 Special Feature: ECG, Oxymeter (SpO2), Always On Display, Time Display, GPS, Sleep Monitor, Text Messaging, Voice Call, Phone Call, SOS Button, Wireless Charging, Notifications, Music Player, Multisport Tracker, Heart Rate Monitor, Fall Detection, Contactless Payments, Calendaring, Breath Monitor, Audio Recording, Alarm Clock, Activity Tracker, Accelerometer
 </t>
@@ -677,11 +713,11 @@
     <t xml:space="preserve">Apple Watch Series 7 [GPS 41mm] Smart Watch with Blue Aluminum Case with Abyss Blue Sport Band</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	Apple
-Model Name:	Apple Watch Series 7
-Style:	GPS
-Color:	Blue Aluminum Case with Abyss Blue Sport Band
-Screen Size:	41 Millimeters
+    <t xml:space="preserve">Brand:Apple
+Model Name:Apple Watch Series 7
+Style:GPS
+Color:Blue Aluminum Case with Abyss Blue Sport Band
+Screen Size:41 Millimeters
 Special Feature: Activity Tracker, Heart Rate Monitor, Sleep Monitor, Blood Oxygen, Fall detector, Always-On Retina Display, Always-On Altimeter
  The most advanced Apple Watch features powerful health innovations like sensors and apps to measure your blood oxygen and take an ECG. The larger, Always-On Retina display makes it easier to use and read. The most durable Apple Watch. Charges faster so you can get going quicker.
 </t>
@@ -699,10 +735,10 @@
     <t xml:space="preserve">HUAWEI Watch FIT Bluetooth SmartWatch, 1.64" Vivid AMOLED Display</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	HUAWEI
-Style:	Modern
-Screen Size:	42 Millimeters
-Special Feature:	Time Display, Sleep Monitor, Accelerometer, GPS, Pedometer, Heart Rate Monitor
+    <t xml:space="preserve">Brand:HUAWEI
+Style:Modern
+Screen Size:42 Millimeters
+Special Feature:Time Display, Sleep Monitor, Accelerometer, GPS, Pedometer, Heart Rate Monitor
 HUAWEI WATCH FIT has a wonderful 1.64-inch rectangular AMOLED screen and 280 x 456 HD resolution, HUAWEI WATCH FIT offers an ultra-clear and wide viewing experience. Automatic brightness adjustment offers better viewing in sunlight.</t>
   </si>
   <si>
@@ -727,15 +763,18 @@
     <t xml:space="preserve">https://consumer.huawei.com/en/wearables/watch-gt2/specs/</t>
   </si>
   <si>
+    <t xml:space="preserve">ouemail</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUAWEI Watch GT 2 Pro Smart Watch 1.39 inch AMOLED Touchscreen SmartWatch</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand:	HUAWEI
-Model Name:	Watch GT 2 Pro
-Style:	Modern
-Color:	Gray
-Screen Size:	1.39 Inches
-Special Feature:	Time Display, Sleep Monitor, Email, Accelerometer, Text Messaging, GPS, Heart Rate Monitor
+    <t xml:space="preserve">Brand:HUAWEI
+Model Name:Watch GT 2 Pro
+Style:Modern
+Color:Gray
+Screen Size:1.39 Inches
+Special Feature:Time Display, Sleep Monitor, Email, Accelerometer, Text Messaging, GPS, Heart Rate Monitor
 LONG BATTERY LIFE: Up to 2 weeks of battery provides continuous power for your smart life. With 5 minutes of wireless quick charge, you can use this sports watch for 10 hours. It also supports reverse charging from your phone when there is lack of chargers.</t>
   </si>
   <si>
@@ -746,6 +785,143 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/HUAWEI-Touchscreen-SmartWatch-Waterproof-Bluetooth/dp/B08JTDQTYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJI OM 5 Smartphone Gimbal Stabilizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color:Athens Gray
+Brand:DJI
+Compatible Devices:Cellphone
+Item Dimensions: LxWxH10.41 x 4.37 x 3.63 inches
+Item Weight:290 Grams
+Maximum Weight: Recommendation614 Grams
+Portable and Palm-Sized Gimbal Stabilizer for Smartphones - DJI OM 5 is a lightweight and versatile tool that unlocks the full potential of your smartphone. Enjoy flawless selfies, super-smooth video, automatic tracking, and so much more with this DJI phone gimbal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/WEBP_402378-T1/images/I/612AEzN12rL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/WEBP_402378-T1/images/I/51e5f7VmMqL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/DJI-Smartphone-Stabilizer-Extension-ShotGuides/dp/B099ZXD27F?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holder for mobile phone/tablet, bamboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This simple tool comes to good use when you are surfing, chatting or having digital meetings. The lightweight bamboo design takes up little space and the two slots fit most devices - even with the cover on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/bergenes-holder-for-mobile-phone-tablet-bamboo__0730164_pe737412_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/bergenes-holder-for-mobile-phone-tablet-bamboo__0948962_pe799405_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/bergenes-holder-for-mobile-phone-tablet-bamboo-10457999/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone &amp; Key Holder, grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This small and foldable holder for mobile phones allow you to have your hands free when watching films or having virtual meetings. Perfect when travelling and easy to grab and bring with you in a flash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/yuppienalle-holder-for-mobile-phone-gray__1020769_pe831987_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/yuppienalle-holder-for-mobile-phone-gray__1020764_pe831990_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/yuppienalle-holder-for-mobile-phone-gray-20503887/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermitshell Travel Case for JBL Boombox 2 - Waterproof Portable Bluetooth Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:Hermitshell
+Connector Type:Bluetooth
+Special Feature:Portable, Waterproof
+Mounting Type:Tabletop
+Speaker Surround Sound Channel Configuration:2 1
+Hermitshell Hard Travel Storage Carrying Case.
+Protect your favorite device from bumps dents and scratches.
+Made to fit JBL Boombox 2 - Waterproof Portable Bluetooth Speaker.
+Material:EVA.Color: Black.
+For sale is case only (device and accessories are sold separately).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61Jex2RmKqL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51DPu1pIkgL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Hermitshell-Travel-Case-JBL-Boombox/dp/B08H8DQDSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Case for JBL Xtreme 3/ Extreme 2 Portable Waterproof Wireless Bluetooth Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brand:	COMECASE
+Colour:	Black+Black Inside
+Compatible devices:	Speakers
+Form factor:	Case
+Shell type:	Hard
+Comprehensive Protection Storage Suitable for: Portable carrying hard case cover perfect for JBL Xtreme 3/ JBL Xtreme 2 Portable Speaker with Bluetooth, Built-in Battery, Waterproof and Dustproof Feature, and Charge Out, with accessories zipper pocker for other jbl extreme accessories, like power cord, charger adapter, usb cable. External Size: 12.5 x 5.5 x 5.5 in,Pocket dimension: 6.25 x 5.5 in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81HVIICdVwL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/815LmUEHhCL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Portable-Waterproof-Wireless-Bluetooth-Accessories/dp/B08QHZN4L5?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case for JBL Flip 5/for Flip 6 Waterproof Portable Bluetooth Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compatible devices:	Speakers
+Form factor:	Case
+Shell type:	Hard
+Material:	Ethylene Vinyl Acetate
+Special features:	Waterproof
+Pattern:	Solid
+Age range (description):	Adult
+Water resistance level: Water proof
+Carrying Box fits for JBL Flip 5 4 6 Waterproof Portable Bluetooth Speaker. Protecting your precious speaker away from scratch and damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71RKP7kE5zL._AC_SL1200_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71X6gz3UFnL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Waterproof-Portable-Bluetooth-Speaker-Included/dp/B07WP98RD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carry Case for JBL Charge 4 / JBL Charge 5 Bluetooth Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colour:	black
+Compatible devices:	Lautsprecher
+Form factor:	Hülle,Schutzhülle
+Shell type:	Hart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71T-lcvJrqS._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71fkuL7d5jL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.de/-/en/XANAD-Travel-Charge-Bluetooth-Speaker-black/dp/B07V43MHCL</t>
   </si>
 </sst>
 </file>
@@ -760,7 +936,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -781,7 +956,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -860,13 +1034,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -892,7 +1066,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="n">
+        <v>3287</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,6 +1087,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3289</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -931,6 +1110,9 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3291</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -952,6 +1134,9 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3293</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -972,6 +1157,9 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>3295</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -992,6 +1180,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>3297</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1012,6 +1203,9 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>3299</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1032,6 +1226,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>3308</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1052,6 +1249,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>3313</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
@@ -1072,6 +1272,9 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>3301</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1126,6 +1329,246 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3504</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3507</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="119.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1133,11 +1576,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1162,7 +1605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1193,7 +1636,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
@@ -1231,11 +1674,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1294,13 +1737,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1346,6 +1789,43 @@
       </c>
       <c r="H2" s="0" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1366,11 +1846,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1395,21 +1875,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1430,11 +1910,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1464,108 +1944,108 @@
         <v>3466</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>3486</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>180000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3468</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>3471</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,88 +2053,88 @@
         <v>3474</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>3477</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>3480</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>3483</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1675,11 +2155,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1704,84 +2184,84 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1802,11 +2282,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1831,44 +2311,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1889,13 +2369,13 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1918,179 +2398,181 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1400000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1700000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>800000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,9 @@
     <sheet name="watches" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="phone-holders" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="speaker-bags" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="phone-covers" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="phone-screen-protectors" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="battery-cases" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="254">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -922,6 +925,61 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.de/-/en/XANAD-Travel-Charge-Bluetooth-Speaker-black/dp/B07V43MHCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Samsung Clear View Standing Cover Flip Case for Samsung Galaxy S8 - Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Clear View case for the Samsung Galaxy S8 features a semi-transparent front cover that allows you to quickly and easily view incoming calls, messages, battery life as well as the time. This is a fantastic way to keep up to date with your notifications without having to constantly open and close your flip case. Protect the front of your Samsung Galaxy S8 from scratches, scrapes and front-on impacts with the official Clear View cover. 
+- Optimized viewing angle
+- Theme curation service
+- Compatible with the Samsung Galaxy S8
+- Provides full screen protection without additional bulk
+- Fingerprint resistant and anti-scratch
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41fjRc0x2LL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51lrBsoNKTL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Samsung-Clear-Standing-Cover-Galaxy/dp/B01MZGKHQI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass (Screen Pro+) Premium Tempered Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Glass (Screen Pro+) Premium Tempered Glass for Asus ZenPad Z8 Tablets. Clear transparent glass.
+Features:
+- 9H high rigidity defense friction
+- Explosion proof efficiency
+- Oleophobic coating
+- Scratch and wear resistant
+- High definition vision
+- Anti-fingerprint finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/05a798f2-7f96-4762-ab5f-124e486b0225.4dfb29ff9bdfd1b30ad60b0f8138fcf1.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com/ip/Glass-Screen-Pro-Premium-Tempered-Glass-for-Asus-ZenPad-Z8-Clear/219068673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery Case for iPhone 12/12 Pro 6.1", 4800mAh Portable Charging Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This battery case is only for iPhone 12 Pro and iPhone 12 6.1 inches. Not for iPhone 12 mini( 5.4 inches), iPhone 12 Pro Max (6.7 inches) or other models. Please check your phone model before purchasing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61D+CLPBFzL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61G5qkt+xzL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/NEWDERY-Portable-Charging-Rechargeable-Compatible/dp/B09D76NHYP</t>
   </si>
 </sst>
 </file>
@@ -936,6 +994,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -956,6 +1015,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1034,13 +1094,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1336,11 +1396,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1450,10 +1510,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1565,6 +1625,208 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="M1:S2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N2" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1580,7 +1842,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1678,7 +1940,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1743,7 +2005,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1850,7 +2112,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1914,7 +2176,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2159,7 +2421,7 @@
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2286,7 +2548,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2373,7 +2635,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="phone-covers" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="phone-screen-protectors" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="battery-cases" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="batteries" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="253">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -308,26 +309,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://electronyat.qa/en/fujifilm-instax-mini-instant-film-pack-20-sheet-in-qatar-doha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALKALASK - IKEA Battery Alkaline AAA, AA 10pcs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALKALASK - IKEA Battery Alkaline
-You can use the battery for all kind of products, such as MP3 player , cameras, toys , clocks and remote control.
-Package Quantity  : 10 pieces 
-LR03 AAA 1.5V
-LR6 AA 1.5 V
-Not Chargerable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cf.shopee.com.my/file/46d06847a6be87f06d863de1cc71c32f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://cf.shopee.com.my/file/d6b6996cac3eed0460baec2c026d7169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://shopee.com.my/ALKALASK-IKEA-Battery-Alkaline-AAA-AA-10pcs-i.29353393.3353921289</t>
   </si>
   <si>
     <t xml:space="preserve">LOGITECH M171 WIRELESS MOUSE
@@ -518,8 +499,7 @@
     <t xml:space="preserve">https://www.amazon.com/Bluetooth-Wireless-Cancelling-Charging-Resistant/dp/B08MWZHHKP</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Apple MagSafe Charger - Wireless Charger with Fast Charging Capability</t>
+    <t xml:space="preserve">Apple MagSafe Charger - Wireless Charger with Fast Charging Capability</t>
   </si>
   <si>
     <t xml:space="preserve">The MagSafe Charger makes wireless charging a snap. The perfectly aligned magnets attach to your iPhone 13, iPhone 13 Pro, iPhone 12, and iPhone 12 Pro and provide faster wireless charging up to 15W.</t>
@@ -650,8 +630,7 @@
     <t xml:space="preserve">https://www.amazon.com/Apple-Aluminum-Fitness-Activity-Resistant/dp/B07K39FRSL</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Apple Watch SE (GPS, 40mm) - Space Grey Aluminium Case with Midnight Sport Band</t>
+    <t xml:space="preserve">Apple Watch SE (GPS, 40mm) - Space Grey Aluminium Case with Midnight Sport Band</t>
   </si>
   <si>
     <t xml:space="preserve">Brand:Apple
@@ -764,9 +743,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://consumer.huawei.com/en/wearables/watch-gt2/specs/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ouemail</t>
   </si>
   <si>
     <t xml:space="preserve">HUAWEI Watch GT 2 Pro Smart Watch 1.39 inch AMOLED Touchscreen SmartWatch</t>
@@ -980,6 +956,26 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/NEWDERY-Portable-Charging-Rechargeable-Compatible/dp/B09D76NHYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKALASK - IKEA Battery Alkaline AAA, AA 10pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKALASK - IKEA Battery Alkaline
+You can use the battery for all kind of products, such as MP3 player , cameras, toys , clocks and remote control.
+Package Quantity  : 10 pieces 
+LR03 AAA 1.5V
+LR6 AA 1.5 V
+Not Chargerable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cf.shopee.com.my/file/46d06847a6be87f06d863de1cc71c32f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cf.shopee.com.my/file/d6b6996cac3eed0460baec2c026d7169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.com.my/ALKALASK-IKEA-Battery-Alkaline-AAA-AA-10pcs-i.29353393.3353921289</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1096,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1397,10 +1393,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1426,23 +1422,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3510</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>850000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,22 +1449,22 @@
         <v>3504</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,22 +1472,22 @@
         <v>3507</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1510,10 +1509,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1538,84 +1537,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3722</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3725</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="119.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3728</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3731</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1637,10 +1648,10 @@
   <dimension ref="M1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M1" s="1" t="s">
@@ -1667,19 +1678,19 @@
     </row>
     <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N2" s="0" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1700,11 +1711,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1731,16 +1742,16 @@
     </row>
     <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,10 +1783,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1801,23 +1812,96 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3739</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>420000</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3741</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1839,12 +1923,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1951,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="841" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3690</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
@@ -1884,7 +1971,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3692</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>59</v>
       </c>
@@ -1898,7 +1988,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3695</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
@@ -1940,7 +2033,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1999,13 +2092,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2031,6 +2124,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2195</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>70</v>
       </c>
@@ -2053,7 +2149,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3697</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2068,26 +2167,6 @@
       </c>
       <c r="G3" s="0" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2109,10 +2188,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2138,20 +2217,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3700</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2173,10 +2255,10 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2201,202 +2283,202 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>3466</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>3486</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>180000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3468</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="650.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>3471</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>3474</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>3477</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>3480</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="628.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>3483</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2415,13 +2497,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2446,86 +2528,158 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3703</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>160000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3706</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3709</v>
+      </c>
       <c r="B4" s="0" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3712</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2545,10 +2699,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2573,44 +2727,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3716</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>3719</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>450000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2632,10 +2792,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2661,180 +2821,204 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3438</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1100000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3441</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1000000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3444</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1300000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3447</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1400000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>3450</v>
+      </c>
       <c r="B6" s="0" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1600000</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>3453</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1700000</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>3456</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3458</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>800000</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>199</v>
+      <c r="A11" s="2" t="n">
+        <v>3461</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="253">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1092,11 +1092,11 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1392,11 +1392,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1508,11 +1508,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1645,51 +1645,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="M1:S2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N2" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="48.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3940</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>238</v>
       </c>
     </row>
@@ -1712,10 +1718,10 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1740,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>239</v>
       </c>
@@ -1786,7 +1792,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1853,10 +1859,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1922,11 +1928,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2029,11 +2035,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2094,11 +2100,11 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2187,11 +2193,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2254,11 +2260,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2499,11 +2505,11 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2698,11 +2704,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2791,11 +2797,11 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="258">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -764,6 +764,34 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/HUAWEI-Touchscreen-SmartWatch-Waterproof-Bluetooth/dp/B08JTDQTYT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG Galaxy Watch 3 (41mm, GPS, Bluetooth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size:41 mm
+Style:Bluetooth
+Color:Gold
+Brand:	SAMSUNG
+Model Name:	GW3 41mm BT Gold
+Style:	Bluetooth
+Color:	Gold
+Screen Size:	41
+Shape:	Round
+Age Range (Description):	Adult
+Compatible Devices:	Smartphone
+Compatible Phone Models:	Apple, Samsung
+Operating System:	Tizen 4.0
+The most advanced SAMSUNG smartwatch is now also the most stylish. The Galaxy Watch3 combines powerful technology with a premium, customizable design so you can manage the day-to-day from your wrist, beautifully. No matter where life takes you, connect to your favorite apps from your wrist via Bluetooth. Keep an eye on wellness with advanced health monitoring, ¹and go for days without charging. ¹This device and related software are not intended for use in the diagnosis of disease or other conditions, or in the cure, mitigation, treatment or prevention of disease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/6141Q6v-rLL._AC_SL1210_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/81iFopNK1xL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Samsung-Bluetooth-Advanced-monitoring-Tracking/dp/B089DMYSRL</t>
   </si>
   <si>
     <t xml:space="preserve">DJI OM 5 Smartphone Gimbal Stabilizer</t>
@@ -1096,7 +1124,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1396,7 +1424,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1426,22 +1454,22 @@
         <v>3510</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>850000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,22 +1477,22 @@
         <v>3504</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,22 +1500,22 @@
         <v>3507</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1540,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1542,22 +1570,22 @@
         <v>3722</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>200000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,22 +1593,22 @@
         <v>3725</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="119.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,22 +1616,22 @@
         <v>3728</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>130000</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,22 +1639,22 @@
         <v>3731</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>150000</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -1651,7 +1679,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1684,19 +1712,19 @@
         <v>3940</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1749,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1748,16 +1776,16 @@
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,7 +1820,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1822,22 +1850,22 @@
         <v>3739</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>420000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1858,11 +1886,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1892,22 +1920,22 @@
         <v>3741</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>100000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1960,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2039,7 +2067,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2104,7 +2132,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2197,7 +2225,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2264,7 +2292,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2509,7 +2537,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2708,7 +2736,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2795,13 +2823,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3004,29 +3032,70 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>3461</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4409</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>900000</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,24 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="power-banks" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="missed" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="filming" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="mice" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="headsets" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="chargers" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="cameras" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="watches" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="phone-holders" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="speaker-bags" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="phone-covers" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="phone-screen-protectors" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="battery-cases" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="batteries" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="power-banks" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="filming" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="mice" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="headsets" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="chargers" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="cameras" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="watches" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="phone-holders" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="speaker-bags" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="phone-covers" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="phone-screen-protectors" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="battery-cases" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="batteries" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="other" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="275">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -55,178 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipad Tripod Stand, Height Adjustable iPad Stand Floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIDE RANGE OF USES - Rotate 360 angle,can be placed on the floor or desk,holds tablet vertically or horizontally,great for video,chat,watching movies and reading eBooks on your tablet in your home or office,compatible with ipad Pro and most 10-14 inch tablets.
-Raking 10-14 INCH LIGHTWEIGHT TRIPOD WITH BAG - Capture vivid, professional-style photographs with help from this Raking 10-14 Inch lightweight tripod. The adjustable-height tripod makes it easy to achieve reliable stability and score just the right angle when going after that award-winning shot.and Flashlight with the brand of Raking as Gift By Free.
-3-WAY HEAD - The tripod's three-way head allows for ultimate versatility. Easily change the orientation of the camera from portrait to landscape--and almost any angle in between with the handy tilt motion. Turn the knobs to secure. The tripod also allows for full panoramic possibilities with its 360-degree swivel function.
-LIGHTWEIGHT AND EASY TO STORE - Made of strong yet lightweight aluminum, the tripod transitions effortlessly from one spot to another and transports easily. The tripod offers a collapsible design where the handle rotates down, the legs contract, and everything folds in, creating a short, compact size. The tripod fits neatly into the provided zippered bag for easy portability and safe storage.
-QUICK-RELEASE PLATE - The tripod's quick-release mounting plate makes it easy to remove your camera from the tripod, helping to ensure fast transitions between shots and for quickly moving from location to location.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/61mi7TERsHL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.co.uk/Raking-Universal-Tablets-Carrying-Includeed/dp/B07H9RT763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring light with phone holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A must for every video streamer – a round LED light and sturdy mobile phone holder that you can direct and adjust exactly as you like to create the perfect video clip or selfie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/lanespelare-ring-light-with-phone-holder__0971506_pe811367_s5.jpg?f=m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ikea.com/gb/en/images/products/lanespelare-ring-light-with-phone-holder__0971505_pe811368_s5.jpg?f=m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ikea.com/gb/en/p/lanespelare-ring-light-with-phone-holder-10514358/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ring Supplementary lamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimmable 32 cm LED SMD Ring Light with a wide dimming range from 10%-100%.
-Special LED SMD design, lightweight and portable. Constant current drive, low power loss.
-NO ultraviolet and infrared light radiation, low heat output, safety and environmental protection.
-Long service life of more than 50000hrs.
-With reinforced flexible arm which will move freely and never droop.
-Extra Long Cord and Heavy Duty Thumb Screws.
-With plastic color filter set: Orange+ White
-It is widely applied to outdoor photo light, filling light indoors, portrait, fashion, wedding art, advertisement photography, shooting video, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/51ccZkyPO7L._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/51yJ9B7e4zL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.eg/-/en/Supplementary-Degree-Rotating-3200K-5600K-Control/dp/B08X67YC1V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case for Harman Kardon Onyx Studio 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfect Fit - Our storage bag is specially designed for Harman Kardon Onyx Studio 7 speaker ,the perfect fit design protects your speaker from scratches or damage.
-Premium Material - Made of Hard EVA materials, waterproof ,durable and wear-resistant ,shockproof .
-Two Ways to Carry - Handbag or Shoulder Bag According to Your Need . Detachable shoulder strap ,Firm strap button , Adjustable Shoulder Strap Design, it's very Convenient to carry them with you wherever you Go.
-Easy to Use - Strong double zippers provides you with zipper closure to ensure smooth and easy opening and closing. The small bag has enough space to hold your charging Cable and other accessories.
-Soft Inner Superquality Velvet - This case for harmon kardon bluetooth speaker 7 is build-in soft superquality velvet ,provide better protection for your speakers .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/71H0Z28jXOL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/71f1SucX-TL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B09D3NDFYL/ref=twister_B09D3NKRJC?_encoding=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrying Case for Harman Kardon Onyx Studio 5, Onyx Studio 6 Bluetooth Wireless Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfectly for Harman Kardon Onyx Studio 5, Onyx Studio 6 Bluetooth Wireless Speaker
-Featured Design: tailor made best matching case to keep Harman Kardon Onyx Studio 5, Onyx Studio 6 Bluetooth Wireless Speaker and charger cord well organized and protected; good for home storage and travel carrying
-Assured Protection: Semi-hard carrying case protecting the device from shock, shake, scratch. PEVA materials with pressure or hit absorbing and water resistant
-User friendly design: Strong compact light weight case, with fashion style shoulder case best matching in shape and color,detachable pocket for charger adapter.
-Worry-free Guarantee: CaseSack offer 100% refund with quality problem. Only protective case for sales only, Device or accessories sold separately. CLICK the orange button to buy. Share with your review later on.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/91Q3jh6oyKL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/918vDBz+taL._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.sg/CaseSack-Carrying-Bluetooth-Wireless-Speaker/dp/B07NBX5WPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-in-1 Wireless Charger with MagSafe 15W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enjoy the fastest possible charge up to 15W to your iPhone 14/13/12 series along with the easy alignment of MagSafe technology. The wireless charging puck and pad are optimized for your Apple Watch and AirPods.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwfdc13eba/images/hi-res/0/138852336_WIZ009-BLK_Hero_WDevice_WEB.png?sw=700&amp;sh=700&amp;sm=fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw8413559c/images/hi-res/1/138852337_WIZ009-BLK_Hero_NoDevice_WEB.png?sw=700&amp;sh=700&amp;sm=fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.belkin.com/3-in-1-wireless-charger-with-magsafe-15w/P-WIZ009.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-A to lightning, dark grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meet your new durable USB cable! LILLHULT has a rubber head for increased flexibility and a textile cord with dense knitting to withstand everyday wear and tear. An elastic band also makes it tangle-free.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ikea.com/my/en/images/products/lillhult-usb-a-to-lightning-dark-grey__1045623_pe842681_s5.jpg?f=xs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ikea.com/my/en/images/products/lillhult-usb-a-to-lightning-dark-grey__1079344_pe857514_s5.jpg?f=xs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ikea.com/my/en/p/lillhult-usb-a-to-lightning-dark-grey-80527588/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coteetci CS5503 Aluminum Mini Desktop Stand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjustable height, angle and distance.
-35 Degree Up and down
-Size: Fit under 4-7″Tablet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://otc.lk/wp-content/uploads/2022/11/Coteetci-CS5503-Aluminum-Mini-Desktop-Stand-1.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://otc.lk/wp-content/uploads/2022/11/Coteetci-CS5503-Aluminum-Mini-Desktop-Stand-2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lifemobile.lk/product/coteetci-sd-16-aluminum-mini-desktop-stand/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-C to Lightning Cable (1 m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect your iPhone, iPad, or iPod with Lightning connector to your USB-C or Thunderbolt 3 (USB-C) enabled Mac for syncing and charging, or to your USB-C enabled iPad for charging.
-You can also use this cable with your Apple 18W, 20W, 29W, 30W, 61W, 87W or 96W USB‑C Power Adapter to charge your iOS device and even take advantage of the fast-charging feature on select iPhone and iPad models.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://store.storeimages.cdn-apple.com/4982/as-images.apple.com/is/MM0A3?wid=572&amp;hei=572&amp;fmt=jpeg&amp;qlt=95&amp;.v=1632956386000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.futuremobiles.lk/wp-content/uploads/2021/01/unnamed.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.apple.com/shop/product/MM0A3AM/A/usb-c-to-lightning-cable-1-m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaseSack Carrying Case for Harman Kardon Onyx Studio 5, Onyx Studio 6 Bluetooth Wireless Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perfectly for Harman Kardon Onyx Studio 5, Onyx Studio 6 Bluetooth Wireless Speaker
-Featured Design: tailor made best matching case to keep Harman Kardon Onyx Studio 5, Onyx Studio 6 Bluetooth Wireless Speaker and charger cord well organized and protected; good for home storage and travel carrying
-Assured Protection: Semi-hard carrying case protecting the device from shock, shake, scratch. PEVA materials with pressure or hit absorbing and water resistant
-User friendly design: Strong compact light weight case, with fashion style shoulder case best matching in shape and color,detachable pocket for charger adapter.
-Worry-free Guarantee: CaseSack offer 100% refund with quality problem. Only protective case for sales only, Device or accessories sold separately. CLICK the orange button to buy. Share with your review later on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/91oKeOlb86L._AC_SL1500_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/CaseSack-Carrying-Bluetooth-Wireless-Speaker/dp/B07Y838BP1</t>
   </si>
   <si>
     <t xml:space="preserve">Anker Wireless PowerCore 10000mAh Portable Charger with USB-C</t>
@@ -273,12 +100,6 @@
     <t xml:space="preserve">https://www.amazon.com/Apple-MJWY3AM-A-MagSafe-Battery/dp/B099BWY7WT</t>
   </si>
   <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/41m4bG0z5iS._AC_SL1144_.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com.au/Apple-USB-C-Lightning-Cable-1m/dp/B09JRDNS19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gorilla Pod Mobile Vlogging Kit (Black)</t>
   </si>
   <si>
@@ -309,6 +130,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://electronyat.qa/en/fujifilm-instax-mini-instant-film-pack-20-sheet-in-qatar-doha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED SOFT RING LIGHT RL-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED SOFT RING LIGHT RL-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://easyserviceuae.com/public/uploads/all/5mJPxvTvn9zX9NiShiFfud28jQQfNGuDh2NI0NjN.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lsblog.xyz/ProductDetail.aspx?iid=210747890&amp;pr=37.88</t>
   </si>
   <si>
     <t xml:space="preserve">LOGITECH M171 WIRELESS MOUSE
@@ -1004,6 +837,245 @@
   </si>
   <si>
     <t xml:space="preserve">https://shopee.com.my/ALKALASK-IKEA-Battery-Alkaline-AAA-AA-10pcs-i.29353393.3353921289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Mirror One Piece Mirror, Small Wall Mirror, Wall Decor, Round Wall Mirror, Hanging Mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This beautiful Champagne gold 1 piece Decorative Mirror. Perfect to accent any wall, whether you decide to display them in the master bedroom or spice up the dining room. Wipes clean with glass cleaner and a cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.etsystatic.com/8663920/r/il/eb0793/2273330697/il_1140xN.2273330697_33v3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.etsystatic.com/8663920/r/il/e58047/2347159275/il_1140xN.2347159275_6089.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/listing/786088889/wall-mirror-one-piece-mirror-small-wall?click_key=f1f99602fbd6c64a2bb491fae47f052b057b8bf7%3A786088889&amp;click_sum=7cde955a&amp;ref=market_rv-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harley-Davidson Motorcycles Flask Gift Set by Harley Roadhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material:	Stainless Steel
+Brand:	HARLEY-DAVIDSON FOOTWEAR
+Finish type:	Polished
+Item weight:	0.01 Ounces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/51qD018AEZL._AC_SL1005_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T2/images/I/51U6CsmSjzL._AC_SL1005_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Harley-Davidson-Motorcycles-Flask-Harley-Roadhouse/dp/B0040GMR8S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMMY Geuine Leather Wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARA Ring Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMSUNG Galaxy Buds Pro 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand:	SAMSUNG
+Model name:	Samsung Galaxy Buds Pro 2
+Colour:	Grey
+Form factor:	In Ear
+Connectivity technology:	Wireless
+Wireless communication technologies:	Bluetooth
+Special features:	ANC, Microphone Included
+Included components:	Cable, Ear Cushions, Wireless Charging Case
+Age range (description):	Adult
+Material:	Aluminum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/617g+YB1s+L._AC_SX679_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61b8TsDtDYL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/SAMSUNG-Galaxy-Buds-Pro-SM-R510/dp/B0B8TC6KWF/ref=sr_1_2?crid=3PAKNE5Q0EKTW&amp;keywords=galaxy+buds+2+pro&amp;qid=1676097299&amp;sprefix=galaxy+buds+2+pro%2Caps%2C235&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robustline Hot Glue stick, Made In Taiwan. (700 Grams)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: 	Robustline
+Colour: 	clear
+Item package quantity: 	1
+Package information: 	Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/51P1LlXWCkL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61YOiL616dS._AC_SL1300_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.sa/-/en/Robustline-Glue-stick-Taiwan-Grams/dp/B07N6PKBFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fridge Auto Protector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: Terminator
+Model: TFP-5AU
+Description: Fridge Auto Protector.
+Country of Origin: China
+Terminator Fridge Auto Protector
+    Lower Voltage Cut off &amp; Over Voltage Cut off are 160V &amp; 250V
+    Response time once Surge is detected 8/20 Micro Seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://terminator.ae/wp-content/uploads/2021/08/2-NXPowerLite-Copy-155.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://terminator.ae/wp-content/uploads/2021/08/1-NXPowerLite-Copy-220.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://terminator.ae/product/fridge-auto-protector/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leather Square Pen Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A square pen holder with a very clean and simple look. Smart and stylish design.
+Crafted from an entirely leather-lined wooden base that features hand-crafted stitching.
+A robust item designed to last.
+Customizable with your initials or tonal stitching, perfect also as a gift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luxuryuniquegifts.com/1978-thickbox_default/leather-square-pen-holder.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desk Cube Holders Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.formax.co.za/stationery/desk-accessories/desk/desk-cube-holders-black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foldable Laptop and Smartphone Riser Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give your laptop and smartphone the much-needed place to reside with ProCooler-1. The 2-in-1 foldable laptop and smartphone stand features a 360° rotatable base with height adjustments, to get the best viewing angle while working. The laptop stand easily fits a laptop up to 17”. The premium construction with large cutout vents allowing easy air ventilation to keep your devices cool. ProCooler-1 is the perfect accessory you need for your laptop and smartphone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0028/5907/3601/products/Procooler-1-01_800x.jpg?v=1591011715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0028/5907/3601/products/Procooler-1-05_800x.jpg?v=1591011716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.promate.net/products/procooler-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leather Magazine Rack – Black, File Holder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classically designed and solidly constructed, this magazine file is perfect for holding loose documents, magazines and brochures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osco.com/wp-content/uploads/2021/07/BKPUMR1-Black-Magazine-Rack-New-Style-scaled.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osco.com/wp-content/uploads/2021/07/BKPUMR1-Black-Magazine-Rack-Propped-New-Style-scaled.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://osco.com/product/faux-leather-magazine-rack-black/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative-Idea Foldable Handbag Holder 5 Pcs Round Purse Table Hook Bag Purse Hanger Assorted Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Feature: Foldable, easy to pack and store. Beautiful adornment to match with your handbags.
+-The desk you use should not be too thick, it is better within 1.8 inches/ 4.5 cm.
+-Folded Size: About 1.7"x0.3"; 3.1" is unfolded length.
+-Package: The set is 5pcs, assorted pattern. Easy to match your handbag colors.
+-Usage: Help you solve a huge load of problem like falling handbag from the chair, stress on your lap, and even the ground dirtying your precious purse. Your handbag or purse would not invade your sitting space anymore.
+-Application: Hang up your bag and have it placed next to you when you are dining outside. Keep clean and safe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71yteTXMMsL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71ZVwXhdzjL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legami SOS No Touch Keyring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose the most on-trend accessory for 2020! The No-Touch Key Ring by Legami will help you to use objects without touching the parts potentially contaminated with germs.
+Thanks to this handy accessory, you can avoid contact with many surfaces. It is practical and ergonomic, and has many functions.
+- The hook can be used to open doors
+- The touchscreen tip helps you to press lift buttons or to enter your PIN at the cashpoint
+- The key ring enables you to always keep it at hand- If you’re in need of a corkscrew, you can use the bottle opener function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cecipaolo.com/images/product/CKEY0001_2-800x800-1605034159.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cecipaolo.com/images/product/CKEYKIT1-800x800-1605034207.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cecipaolo.com/p/27156/Legami-SOS-No-Touch-Keyring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Metallic File Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.sg/MUJI-PP-Stand-File-Box-A4-Wide-i.257608708.4434802945?sp_atk=10383a3a-1abc-41f8-915b-f52f6638dcae&amp;xptdk=10383a3a-1abc-41f8-915b-f52f6638dcae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANAV Time Machine PSC-1001 Galvanic Ion Facial Massagerhttps://shopee.sg/VANAV-Time-Machine-PSC-1001-Galvanic-Ion-Facial-Massager-i.328532956.8315749917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand: VANAV
+Skin Care Benefits: Anti Aging, Dryness, Fineline/ Wrinkles, Puffiness, Uneven skin tone
+Power Source: Battery
+Warranty Duration: 12 Months
+Warranty Type: Manufacturer Warranty
+Skin Type: All Skin Type
+Country of Origin: Korea
+Stock: 796
+Ships From: Korea
+For basic skin care, massage your skin using Time Machine for 5 minutes every day. 
+STEP 1: Apply moisturizing/nourishing skincare products depending on your skin type. 
+STEP 2:  Select (+) ion mode by pressing the button.
+STEP 3: Gently massage your face and neck following the skin’s texture.
+STEP 4: Operating time: 3 minutes (You can adjust the time depending on the absorption rate for your skin.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://harmanhouse.com/wp-content/uploads/2020/12/TM-2-370x370-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.danawa.com/prod_img/500000/115/257/img/4257115_1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://shopee.sg/VANAV-Time-Machine-PSC-1001-Galvanic-Ion-Facial-Massager-i.328532956.8315749917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine Aerator Electric Wine Decanter Pump Dispenser Set, Electric Aeration and Decanter Wine Spout Pourer, One Touch Red -White Wine Accessories (Red)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Wine Aerator and Dispenser - Gift Box.
+Electronic Wine Pourer is designed to aerate the wine immediately with one simple touch.
+It has a powerful pump inside, providing strong airflow to pump the wine out into your glass.
+Tips for Use:
+If you long press switch button 15 seconds when starting the aerator, the power indicator light will flash one time, and the indicator will always indicatoring, which will not turn off any more. If you want to turn off the power indicator light that always indicatoring, please long press the switch button 15 seconds, until the indicator lights flash one time, then the light will turn off within 30 seconds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/41WY02JlUcL._AC_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/W/IMAGERENDERING_521856-T1/images/I/71yg0kZipeL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/Electric-Decanter-Dispenser-Aeration-Accessories/dp/B08V98TPWB</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1109,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1097,8 +1170,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1118,15 +1191,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,9 +1222,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>3287</v>
+    <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3690</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1160,252 +1233,59 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>560000</v>
+        <v>250000</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>3289</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>400000</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3695</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3291</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3293</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>220000</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>3295</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>3297</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>750000</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>3299</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>3308</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>3313</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>3301</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1418,13 +1298,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1448,83 +1328,37 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>3510</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>204</v>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3940</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>850000</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>3504</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3507</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>218</v>
+        <v>194</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1534,13 +1368,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1565,105 +1399,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="21.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>3722</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>219</v>
+    <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="95.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>3725</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="119.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3728</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>130000</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3731</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>238</v>
+        <v>199</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="n">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1673,16 +1439,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1703,28 +1469,28 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="48.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>3940</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>243</v>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3739</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1743,13 +1509,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1774,28 +1540,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>244</v>
+    <row r="2" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3741</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="0" t="n">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="n">
-        <v>60000</v>
+        <v>208</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1814,15 +1579,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1845,100 +1610,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>3739</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>4414</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>4417</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4420</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4421</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4424</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4427</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4430</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>4432</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>4433</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>4436</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4439</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>420000</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4442</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4445</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4446</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4449</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4452</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>3741</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" display="VANAV Time Machine PSC-1001 Galvanic Ion Facial Massagerhttps://shopee.sg/VANAV-Time-Machine-PSC-1001-Galvanic-Ion-Facial-Massager-i.328532956.8315749917"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1954,15 +1942,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,64 +1973,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>3690</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2195</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>250000</v>
+        <v>1100000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>3692</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3695</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>400000</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>67</v>
+        <v>3697</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4419</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2063,11 +2054,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2092,22 +2083,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3700</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>150000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>36</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2126,13 +2119,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2157,50 +2150,202 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2195</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3466</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3486</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>3468</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>3471</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>3474</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>3477</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>3480</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D9" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>3697</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="10" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>3483</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>240000</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D10" s="1" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2219,13 +2364,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2250,408 +2395,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>3700</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>150000</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>3466</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>3486</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>180000</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>300000</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>3468</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>3471</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>600000</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>3474</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>400000</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>3477</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>400000</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>3480</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>600000</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>3483</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>600000</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G65"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>3703</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>160000</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>130</v>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>3706</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>131</v>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>200000</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>135</v>
+      <c r="E3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3709</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>120000</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>140</v>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3712</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>141</v>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>150000</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>145</v>
+      <c r="E5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2725,18 +2558,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2762,49 +2595,49 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="20.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>3716</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>400000</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>149</v>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>3719</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>450000</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>154</v>
+      <c r="E3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2818,18 +2651,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2858,46 +2691,46 @@
       <c r="A2" s="2" t="n">
         <v>3438</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>155</v>
+      <c r="B2" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>1100000</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>159</v>
+      <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>3441</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>160</v>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>164</v>
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2905,177 +2738,177 @@
         <v>3444</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>1300000</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>169</v>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3447</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>170</v>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>1400000</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>174</v>
+      <c r="E5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>3450</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>175</v>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>1600000</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>179</v>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>3453</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>180</v>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>1700000</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>184</v>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>3456</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>185</v>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>189</v>
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>3458</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="1" t="n">
         <v>800000</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>193</v>
+      <c r="E9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>3461</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>194</v>
+      <c r="B10" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <v>900000</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>198</v>
+      <c r="E10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="51.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>4409</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>199</v>
+      <c r="B11" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="D11" s="1" t="n">
         <v>900000</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>203</v>
+      <c r="E11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3105,4 +2938,304 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>3510</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>850000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3504</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3507</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3722</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>3725</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3728</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3731</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -22,6 +22,8 @@
     <sheet name="battery-cases" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="batteries" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="other" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="face-masks" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="tape-measures" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="304">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1076,6 +1078,103 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.ca/Electric-Decanter-Dispenser-Aeration-Accessories/dp/B08V98TPWB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corner bumper, dark brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made with the safety of children in mind, but also loved by adults. These 8 dark-brown corner bumpers reduce the risk of your child injuring themselves on sharp table edges and corners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/undvika-corner-bumper-dark-brown__1046323_pe842942_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/images/products/undvika-corner-bumper-dark-brown__0874412_pe720796_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/sa/en/p/undvika-corner-bumper-dark-brown-50443811/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door stop, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made with the safety of children in mind, but also to be loved by adults. These door stops keep the door open, which reduces the risk of fingers getting caught in the door.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/patrull-door-stop-white__0710894_pe727826_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/images/products/patrull-door-stop-white__0874408_pe617251_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/us/en/p/patrull-door-stop-white-10098949/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi latch, white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use this multi-latch to lock drawers, fridges and doors – anything that could seem inviting to open for small, curious children. You simply fix it around the edge of the door or drawer you want to lock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/pt/en/images/products/undvika-multi-latch-white__0660459_pe711055_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/pt/en/images/products/undvika-multi-latch-white__0874464_pe702550_s5.jpg?f=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ikea.com/pt/en/p/undvika-multi-latch-white-40339867/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodycare BC 018 Household Automatic Roll Kneading Shiatsu Massager cushion can ues in car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: Bodycare
+Model: BC-079
+Input Volage: 100V-240V AC
+Output voltage:DC12V
+Frequency:50-60HZ
+Rated Power:48W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/71T7vaF0bwL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/6117I8Vj4gL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ae/Bodycare-Household-Automatic-Kneading-Massager/dp/B07M829WQ6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLDEN GATE Banknote Disinfectant Machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parasistem.com/wp-content/uploads/2021/09/muhlen-anti-virus-3-para-dezenfeksiyon-makinesi-1-768x681.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parasistem.com/wp-content/uploads/2021/09/muhlen-anti-virus-3-para-dezenfeksiyon-makinesi-2-768x782.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disposаble Face Mask Filtеr Face Mask - Individually </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 50 Black Pieces
+- 30 White Pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanley Tape Measure (5 Meters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 5 meters
+- Tylon blade coating gives durability and wear resistance than lacquer
+- Positive blade lock for accurate measurements
+- Matte-finish blade reduces glare and reflection for easy reading
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0590/1805/1763/products/stanley-tylon-tape-5m-jfif_641c5_1024x1024.jpg?v=1630802959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.acehardware.ph/products/stanley-tape-measure-5-meters</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1296,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1304,7 +1403,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1374,7 +1473,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1445,7 +1544,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1515,7 +1614,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1579,13 +1678,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1923,10 +2022,208 @@
         <v>274</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="68.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" display="VANAV Time Machine PSC-1001 Galvanic Ion Facial Massagerhttps://shopee.sg/VANAV-Time-Machine-PSC-1001-Galvanic-Ion-Facial-Massager-i.328532956.8315749917"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1948,7 +2245,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2058,7 +2355,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2125,7 +2422,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2370,7 +2667,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2569,7 +2866,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2662,7 +2959,7 @@
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2951,7 +3248,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3067,7 +3364,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="power-banks" sheetId="1" state="visible" r:id="rId2"/>
@@ -1292,11 +1292,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1399,11 +1399,11 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1469,11 +1469,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1540,11 +1540,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1610,11 +1610,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1680,11 +1680,11 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2023,6 +2023,9 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5164</v>
+      </c>
       <c r="B18" s="0" t="s">
         <v>275</v>
       </c>
@@ -2040,6 +2043,9 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5167</v>
+      </c>
       <c r="B19" s="0" t="s">
         <v>280</v>
       </c>
@@ -2057,6 +2063,9 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5170</v>
+      </c>
       <c r="B20" s="0" t="s">
         <v>285</v>
       </c>
@@ -2074,6 +2083,9 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="68.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5173</v>
+      </c>
       <c r="B21" s="0" t="s">
         <v>290</v>
       </c>
@@ -2094,6 +2106,9 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>5176</v>
+      </c>
       <c r="B22" s="0" t="s">
         <v>295</v>
       </c>
@@ -2125,11 +2140,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2154,7 +2169,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5177</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>298</v>
       </c>
@@ -2178,15 +2196,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>300</v>
       </c>
@@ -2223,6 +2241,19 @@
         <v>303</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2241,11 +2272,11 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2351,11 +2382,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2418,11 +2449,11 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2663,11 +2694,11 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2862,11 +2893,11 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2955,11 +2986,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3244,11 +3275,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3360,11 +3391,11 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/sheets/accessories.xlsx
+++ b/sheets/accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="power-banks" sheetId="1" state="visible" r:id="rId2"/>
@@ -1296,7 +1296,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1403,7 +1403,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1469,11 +1469,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1499,6 +1499,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5381</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>198</v>
       </c>
@@ -1513,14 +1516,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="1" t="n">
-        <v>80000</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="1" t="n">
-        <v>60000</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1544,7 +1543,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1614,7 +1613,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1684,7 +1683,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2144,7 +2143,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2198,11 +2197,11 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2228,11 +2227,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>5179</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>301</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>30000</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>302</v>
@@ -2276,7 +2281,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2386,7 +2391,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2453,7 +2458,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2698,7 +2703,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2897,7 +2902,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2990,7 +2995,7 @@
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="37.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3279,7 +3284,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3395,7 +3400,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
